--- a/pred_ohlcv/54_21/2020-01-13 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9941.231587348531</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9563.927287348532</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9213.927287348532</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9382.923087348532</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9579.930287348532</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9693.986087348532</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>9741.847340443861</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9242.950440443861</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4939.801840443863</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4997.050140443863</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5063.336540443863</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5392.809740443863</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5365.143440443863</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5349.394940443864</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5148.750340443864</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5175.895440443864</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5080.092740443863</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4866.863955515043</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5022.668055515043</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5019.668055515043</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-16100.64825169255</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15541.27255169255</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15149.71022905248</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-14432.26962905248</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-14432.89962905248</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-14324.81502905248</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-14199.00182905248</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-14254.57322905248</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14450.27322905248</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-14586.25562905248</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-18138.96272905248</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-17915.15446171502</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-19253.22296171502</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-19252.97296171502</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-19252.47296171502</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-19251.97296171502</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-19251.72296171502</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17297.28064546115</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-21467.52974546115</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22689.41176276435</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-22773.51676276435</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-22249.57486276435</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-22247.57486276435</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-23345.05976276435</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-23271.78986276435</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-23271.78986276435</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-23510.34826276435</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-19202.69546276435</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-27981.67756276434</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-28426.57436276434</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-28425.57436276434</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-28424.65736276434</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-28584.88446276434</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-28838.97506276434</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-28767.27976276434</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-28766.87976276434</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-29062.37896276434</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-28955.55936276434</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9941.231587348531</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9563.927287348532</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9213.927287348532</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9382.923087348532</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9579.930287348532</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9693.986087348532</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>9741.847340443861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9242.950440443861</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4997.050140443863</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5063.336540443863</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5392.809740443863</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5365.143440443863</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5349.394940443864</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5148.750340443864</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5298.637340443864</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5115.808040443863</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5175.895440443864</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5080.092740443863</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4866.863955515043</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5022.668055515043</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5019.668055515043</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-16100.64825169255</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15541.27255169255</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15149.71022905248</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-14432.26962905248</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-14432.89962905248</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-14324.81502905248</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-14199.00182905248</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-14254.57322905248</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14450.27322905248</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-14586.25562905248</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-18138.96272905248</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-17915.15446171502</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-19253.22296171502</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-19252.97296171502</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-19252.47296171502</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-19251.97296171502</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-19251.72296171502</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17297.28064546115</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-21467.52974546115</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22689.41176276435</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-22773.51676276435</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-22249.57486276435</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-22247.57486276435</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-23345.05976276435</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-23271.78986276435</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-23271.78986276435</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-23510.34826276435</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-19202.69546276435</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-27981.67756276434</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-28426.57436276434</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-28425.57436276434</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-28424.65736276434</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-28584.88446276434</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-28838.97506276434</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-28767.27976276434</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-28766.87976276434</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-29062.37896276434</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-28955.55936276434</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
